--- a/EmiMollova/Test Cases Bills Homework/Test Case Bills006.xlsx
+++ b/EmiMollova/Test Cases Bills Homework/Test Case Bills006.xlsx
@@ -70,35 +70,6 @@
   </si>
   <si>
     <t>Bills006</t>
-  </si>
-  <si>
-    <r>
-      <t>Successful transaction cancelation by clicking the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
   </si>
   <si>
     <r>
@@ -134,6 +105,35 @@
   </si>
   <si>
     <t>the confirmation window is closed</t>
+  </si>
+  <si>
+    <r>
+      <t>Successful cancelation of a transaction by clicking the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -710,10 +710,10 @@
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
